--- a/results/ff_default/15x15/ff_default_15x15_True_2_1000.xlsx
+++ b/results/ff_default/15x15/ff_default_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.02246378</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02246378</v>
+        <v>4.918226689999999</v>
       </c>
       <c r="H2" t="n">
-        <v>4.91820845</v>
+        <v>1232.07125056</v>
       </c>
       <c r="I2" t="n">
         <v>83.85420377948556</v>
@@ -548,10 +548,10 @@
         <v>0.0009917181133852584</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009917181133852584</v>
+        <v>1.777316944179572</v>
       </c>
       <c r="N2" t="n">
-        <v>1.777349351126572</v>
+        <v>963.7916867193834</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.0081356</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0081356</v>
+        <v>2.49977837</v>
       </c>
       <c r="H3" t="n">
-        <v>2.499772810000001</v>
+        <v>835.5034485</v>
       </c>
       <c r="I3" t="n">
         <v>93.77318235363845</v>
@@ -595,10 +595,10 @@
         <v>0.001847731894283679</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001847731894283679</v>
+        <v>0.790676197487009</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7905974613615422</v>
+        <v>484.5582803624869</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.04406400999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02203193</v>
+        <v>2.57720064</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5772062</v>
+        <v>331.60441235</v>
       </c>
       <c r="I4" t="n">
         <v>37.27290127115368</v>
@@ -642,10 +642,10 @@
         <v>0.002183521235272257</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001091831704784016</v>
+        <v>0.785403263238125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.785397126791493</v>
+        <v>216.1385229431625</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.01425754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00712876</v>
+        <v>1.12823029</v>
       </c>
       <c r="H5" t="n">
-        <v>1.12822774</v>
+        <v>192.20037335</v>
       </c>
       <c r="I5" t="n">
         <v>45.00211023858688</v>
@@ -689,10 +689,10 @@
         <v>0.003575335476870971</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001787652752847925</v>
+        <v>0.3516925354369894</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3517054064589068</v>
+        <v>102.7755886657826</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.08348235</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02087055</v>
+        <v>1.29440734</v>
       </c>
       <c r="H6" t="n">
-        <v>1.29440979</v>
+        <v>86.81829558999999</v>
       </c>
       <c r="I6" t="n">
         <v>17.7981717858582</v>
@@ -736,10 +736,10 @@
         <v>0.003384490944951169</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0008461436974040855</v>
+        <v>0.3599765913815329</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3599746244488672</v>
+        <v>50.43125049219724</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.02237776</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00559431</v>
+        <v>0.46392292</v>
       </c>
       <c r="H7" t="n">
-        <v>0.46393242</v>
+        <v>41.55343851</v>
       </c>
       <c r="I7" t="n">
         <v>23.97866343857181</v>
@@ -783,10 +783,10 @@
         <v>0.006537296415707859</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001634351868457319</v>
+        <v>0.1758878481641225</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1758925628604382</v>
+        <v>25.48424586805145</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.11994277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01999064</v>
+        <v>0.8823541</v>
       </c>
       <c r="H8" t="n">
-        <v>0.88234594</v>
+        <v>41.7716212</v>
       </c>
       <c r="I8" t="n">
         <v>11.93421809594418</v>
@@ -830,10 +830,10 @@
         <v>0.006068656640519425</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001011509734180716</v>
+        <v>0.2374836300065988</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2374818173062255</v>
+        <v>23.09148883162552</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.025917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00431942</v>
+        <v>0.24769386</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24769762</v>
+        <v>15.31183321</v>
       </c>
       <c r="I9" t="n">
         <v>16.49327314571183</v>
@@ -877,10 +877,10 @@
         <v>0.008710506823895446</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001451759370167408</v>
+        <v>0.104901358710742</v>
       </c>
       <c r="N9" t="n">
-        <v>0.104893517700529</v>
+        <v>9.616772294894949</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.15065832</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01883232</v>
+        <v>0.65727415</v>
       </c>
       <c r="H10" t="n">
-        <v>0.65727286</v>
+        <v>24.30724414</v>
       </c>
       <c r="I10" t="n">
         <v>8.555018371654111</v>
@@ -924,10 +924,10 @@
         <v>0.008701122071486119</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001087631076679477</v>
+        <v>0.1601921226960032</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1601935296438659</v>
+        <v>11.6996009233499</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.02697776</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00337218</v>
+        <v>0.14931174</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1493121</v>
+        <v>7.236461</v>
       </c>
       <c r="I11" t="n">
         <v>14.1774679190819</v>
@@ -971,10 +971,10 @@
         <v>0.01083240876546219</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001354049887817542</v>
+        <v>0.07534440205013702</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07534270622542949</v>
+        <v>5.104913695057046</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.17966691</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01796674</v>
+        <v>0.52116752</v>
       </c>
       <c r="H12" t="n">
-        <v>0.52116652</v>
+        <v>16.20027588</v>
       </c>
       <c r="I12" t="n">
         <v>7.732458206153455</v>
@@ -1018,10 +1018,10 @@
         <v>0.01817132100478551</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001817208138276355</v>
+        <v>0.1384449157439339</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1384468098774936</v>
+        <v>7.750529262724177</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.02646396</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00264631</v>
+        <v>0.09075055999999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0907526</v>
+        <v>3.52285935</v>
       </c>
       <c r="I13" t="n">
         <v>12.53401362283836</v>
@@ -1065,10 +1065,10 @@
         <v>0.0114252127947713</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001142490511325354</v>
+        <v>0.05167540004156577</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05167580075454684</v>
+        <v>2.821168194457838</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/ff_default/15x15/ff_default_15x15_True_2_1000.xlsx
+++ b/results/ff_default/15x15/ff_default_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
